--- a/DateBase/orders/Dang Nguyen_2025-8-17.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-8-17.xlsx
@@ -1025,6 +1025,9 @@
       <c r="C71" t="str">
         <v>13_酒红洋桔梗_Burgundy Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F71" t="str">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1086,7 +1089,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0105101061012108101510105510101010551010515312152015202011551015551015105510101055551010555105101010151010101010460</v>
+        <v>0105101061012108101510105510101010551010515312152015202011551015551015105510101055551010555105101010151010101010466</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-8-17.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-8-17.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1029,9 +1029,44 @@
         <v>6</v>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>8</v>
+      </c>
+      <c r="C72" t="str">
+        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F72" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="str">
+        <v>103_绣球秋蓝_Hydrangea Vintage Blue_Hydrangea L._1stem</v>
+      </c>
+      <c r="F73" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="str">
+        <v>551_铁线莲_Glematis_undefined_1bunch</v>
+      </c>
+      <c r="F74" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="str">
+        <v>790_铁线莲粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F75" t="str">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L75"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1089,7 +1124,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0105101061012108101510105510101010551010515312152015202011551015551015105510101055551010555105101010151010101010466</v>
+        <v>010510106101210810151010551010101055101051531215201520201155101555101510551010105555101055510510101015101010101046661555</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-8-17.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-8-17.xlsx
@@ -1126,6 +1126,9 @@
       <c r="G2" t="str">
         <v>010510106101210810151010551010101055101051531215201520201155101555101510551010105555101055510510101015101010101046661555</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
